--- a/数值表7.10/数值版本7.10/技能配置表/new怪物技能配置.xlsx
+++ b/数值表7.10/数值版本7.10/技能配置表/new怪物技能配置.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="角色" sheetId="16" r:id="rId1"/>
@@ -9943,9 +9943,9 @@
         <f>_xlfn.IFNA(VLOOKUP($G32&amp;K$3&amp;K$2,主动技能!$A:$B,2,FALSE),"")</f>
         <v>20029001</v>
       </c>
-      <c r="L32" s="21" t="str">
+      <c r="L32" s="21">
         <f>_xlfn.IFNA(VLOOKUP($G32&amp;L$3&amp;L$2,主动技能!$A:$B,2,FALSE),"")</f>
-        <v/>
+        <v>20029002</v>
       </c>
       <c r="M32" s="21" t="str">
         <f>_xlfn.IFNA(VLOOKUP($G32&amp;M$3&amp;M$2,主动技能!$A:$B,2,FALSE),"")</f>
@@ -9965,7 +9965,7 @@
       </c>
       <c r="Q32" s="22" t="str">
         <f t="shared" si="55"/>
-        <v>{"master1":20029001,"slave1":200002}</v>
+        <v>{"master1":20029001,"master2":20029002,"slave1":200002}</v>
       </c>
       <c r="R32" s="22" t="str">
         <f>_xlfn.IFNA(VLOOKUP(K32,主动技能!$B:$I,7,FALSE),"")</f>
@@ -9973,7 +9973,7 @@
       </c>
       <c r="S32" s="22" t="str">
         <f>_xlfn.IFNA(VLOOKUP(L32,主动技能!$B:$I,7,FALSE),"")</f>
-        <v/>
+        <v>人鱼之怒</v>
       </c>
       <c r="T32" s="22" t="str">
         <f>_xlfn.IFNA(VLOOKUP(M32,主动技能!$B:$I,7,FALSE),"")</f>
@@ -11045,11 +11045,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CG55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="6" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AI8" sqref="AI8"/>
+      <selection pane="bottomRight" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -17547,24 +17547,24 @@
     <row r="49" spans="1:53" x14ac:dyDescent="0.15">
       <c r="A49" t="str">
         <f t="shared" si="95"/>
-        <v>人鱼勇士主动技能1等级1</v>
+        <v>人鱼勇士主动技能2等级1</v>
       </c>
       <c r="B49" s="8">
         <f t="shared" si="96"/>
-        <v>20029001</v>
+        <v>20029002</v>
       </c>
       <c r="C49" s="21" t="s">
         <v>565</v>
       </c>
       <c r="D49" s="8" t="str">
         <f t="shared" si="97"/>
-        <v>主动技能1</v>
+        <v>主动技能2</v>
       </c>
       <c r="E49" s="8">
         <v>1</v>
       </c>
       <c r="F49" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G49" s="8">
         <f>VLOOKUP(C49,角色!E:F,2,FALSE)</f>
@@ -17593,7 +17593,7 @@
       <c r="O49" s="17"/>
       <c r="P49" s="16" t="str">
         <f>VLOOKUP(G49,角色!U:X,主动技能!F49+1,FALSE)</f>
-        <v>eff_erxingguangquan|||</v>
+        <v>||eff_renyuzhinu|</v>
       </c>
       <c r="Q49" s="16">
         <f t="shared" si="98"/>
@@ -29947,8 +29947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC56"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -34954,7 +34954,7 @@
     <row r="44" spans="1:29" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A44" s="21">
         <f>主动技能!B49</f>
-        <v>20029001</v>
+        <v>20029002</v>
       </c>
       <c r="B44" s="4" t="str">
         <f>主动技能!H49</f>
@@ -34990,7 +34990,7 @@
       </c>
       <c r="J44" s="21" t="str">
         <f>主动技能!P49</f>
-        <v>eff_erxingguangquan|||</v>
+        <v>||eff_renyuzhinu|</v>
       </c>
       <c r="K44" s="21">
         <f>主动技能!Q49</f>
